--- a/file-rkakl/File Master Import Kontrol Anggaran/6. Master Komponen.xlsx
+++ b/file-rkakl/File Master Import Kontrol Anggaran/6. Master Komponen.xlsx
@@ -282,10 +282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -798,103 +798,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
